--- a/ch_10/ch_10.xlsx
+++ b/ch_10/ch_10.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26619"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-analytics-excel-book\ch_10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\ch_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8FFC6F-1AB4-4650-B19A-33F3B2C31BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBA0F13-C5BC-41D8-A530-3E3730EF559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="array-references" sheetId="3" r:id="rId1"/>
     <sheet name="array-functions" sheetId="4" r:id="rId2"/>
-    <sheet name="unique" sheetId="5" r:id="rId3"/>
-    <sheet name="filter" sheetId="6" r:id="rId4"/>
-    <sheet name="sort-sortby" sheetId="7" r:id="rId5"/>
-    <sheet name="dm_sales-original" sheetId="9" r:id="rId6"/>
-    <sheet name="xlookup" sheetId="8" r:id="rId7"/>
+    <sheet name="xlookup" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,30 +34,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>Array:</t>
   </si>
@@ -247,7 +221,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEFF313B-2AE6-48A7-9FFB-D14CA4CAABE1}" name="dm_sales_array" displayName="dm_sales_array" ref="A1:F16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEFF313B-2AE6-48A7-9FFB-D14CA4CAABE1}" name="dm_sales" displayName="dm_sales" ref="A1:F16" totalsRowShown="0">
   <autoFilter ref="A1:F16" xr:uid="{AEFF313B-2AE6-48A7-9FFB-D14CA4CAABE1}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{66A576D4-9B7C-438B-B561-A8C31C0019A6}" name="trans_id"/>
@@ -262,62 +236,6 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D51EDD28-B905-40E1-B691-26DE0D47A5BF}" name="dm_sales_unique" displayName="dm_sales_unique" ref="A1:F16" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CFBFB7F1-1404-40B0-AC84-DB75A295FBEE}" name="trans_id"/>
-    <tableColumn id="2" xr3:uid="{9521C06B-9E46-4D0C-ACEB-3BDEFF642F0D}" name="emp_first"/>
-    <tableColumn id="3" xr3:uid="{1CDFBA57-DBA6-403F-98B9-B58CE85C98B0}" name="emp_last"/>
-    <tableColumn id="4" xr3:uid="{540323EE-C406-46ED-A646-766A7E686189}" name="product"/>
-    <tableColumn id="5" xr3:uid="{52C39015-5D99-430D-83C1-DEDD082AF087}" name="quantity"/>
-    <tableColumn id="6" xr3:uid="{511630DF-4A4C-4BE4-BEE0-99ECE3729CD6}" name="sales_amt"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A90EFF67-4703-459F-89C0-25C7EBB3BCE0}" name="dm_sales_filter" displayName="dm_sales_filter" ref="A1:F16" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{81880CE7-7CB8-4516-A05B-87E29A0C7861}" name="trans_id"/>
-    <tableColumn id="2" xr3:uid="{6DAA1049-22D2-4070-8241-3343B3C9FFAF}" name="emp_first"/>
-    <tableColumn id="3" xr3:uid="{024A9DD8-876F-4811-88AD-4DAEDBC63C94}" name="emp_last"/>
-    <tableColumn id="4" xr3:uid="{6EAA4B6F-B0C5-40FA-A489-69686EE6DA79}" name="product"/>
-    <tableColumn id="5" xr3:uid="{27AD3AEA-A7B9-4A55-ADA8-79B95459EE7B}" name="quantity"/>
-    <tableColumn id="6" xr3:uid="{9F9F2F2C-0559-4F32-936F-81A5852C2786}" name="sales_amt"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{65325D94-3C47-4089-9477-9145DD7D5FD6}" name="dm_sales_sort" displayName="dm_sales_sort" ref="A1:F16" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6EA823BD-A818-44A3-89CD-B97189FDAF31}" name="trans_id"/>
-    <tableColumn id="2" xr3:uid="{13C9DF14-C673-47FA-A535-BC68907F36A1}" name="emp_first"/>
-    <tableColumn id="3" xr3:uid="{74AB35F7-E21A-4D1E-A485-131CFA12D6DD}" name="emp_last"/>
-    <tableColumn id="4" xr3:uid="{45626706-4810-4F3D-9587-CCE84EA4FFE2}" name="product"/>
-    <tableColumn id="5" xr3:uid="{189A37D4-11E6-4BAC-94D8-A8090FF5F5D2}" name="quantity"/>
-    <tableColumn id="6" xr3:uid="{50C86103-5DA2-49A8-A525-170F6A5F1A63}" name="sales_amt"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{399ECED9-2088-4C29-B1E9-4E4A5D4E7FB4}" name="dm_sales" displayName="dm_sales" ref="A1:F16" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5A45010A-FB5B-4E8B-A85D-2B71CEA0AF64}" name="trans_id"/>
-    <tableColumn id="2" xr3:uid="{F8851059-9097-4EB9-A7FF-DEBC00598B74}" name="emp_first"/>
-    <tableColumn id="3" xr3:uid="{76299395-635B-497D-B3D6-524C119B6F1F}" name="emp_last"/>
-    <tableColumn id="4" xr3:uid="{850459B1-8A9D-4A2A-81FB-57FB4EAD8FD9}" name="product"/>
-    <tableColumn id="5" xr3:uid="{6BAE2059-6894-42F8-B7EF-E00918A37715}" name="quantity"/>
-    <tableColumn id="6" xr3:uid="{856BD276-9260-4C2F-AEC2-FB3F7ED99589}" name="sales_amt"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F9F3E84B-F706-4DD6-8CCD-E4438BCD0D12}" name="transactions" displayName="transactions" ref="A1:H21" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{EEF479B5-2E93-497D-8501-736E4296481E}" name="trans_id"/>
@@ -337,7 +255,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{14C71386-E2D6-409C-A9CE-876265D941E8}" name="branches" displayName="branches" ref="J1:K4" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="2" xr3:uid="{A115BA84-576C-454D-81AB-A73E2142265D}" name="branch_name"/>
@@ -347,7 +265,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AB0967EE-D78A-47C6-BC15-4E8FC012AEC0}" name="products" displayName="products" ref="J7:L12" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{5D9FF2AA-097F-47C6-9D85-4DA8673A8912}" name="product_id"/>
@@ -645,18 +563,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886B6D4A-372A-44D5-9850-365A4A804FBA}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="2.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -674,40 +590,10 @@
       <c r="C2">
         <v>7</v>
       </c>
-      <c r="E2">
-        <f t="array" ref="E2:G2">A2:C2</f>
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(E2)</f>
-        <v>{=A2:C2}</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E5" cm="1">
-        <f t="array" ref="E5:G5">A2:C2</f>
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(E5)</f>
-        <v>=A2:C2</v>
       </c>
     </row>
   </sheetData>
@@ -1061,1383 +947,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D0F960-2026-4361-94F1-598CF4B016BE}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.86328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>39.979999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3">
-        <v>149.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>14.97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>99.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3">
-        <v>119.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3">
-        <v>17.43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>39.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3">
-        <v>74.849999999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>59.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>60</v>
-      </c>
-      <c r="F16" s="3">
-        <v>14.94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E667399B-EBC2-466C-9E96-D86D9664DCF7}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>39.979999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3">
-        <v>149.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>14.97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>99.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3">
-        <v>119.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3">
-        <v>17.43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>39.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3">
-        <v>74.849999999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>59.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>60</v>
-      </c>
-      <c r="F16" s="3">
-        <v>14.94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E39B22-B5C6-428C-A3CD-9AFFB066484B}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>39.979999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3">
-        <v>149.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>14.97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>99.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3">
-        <v>119.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3">
-        <v>17.43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>39.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3">
-        <v>74.849999999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>59.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>60</v>
-      </c>
-      <c r="F16" s="3">
-        <v>14.94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614D0095-11E4-419D-8529-26C80F39F032}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>39.979999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3">
-        <v>149.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>14.97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>99.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3">
-        <v>119.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3">
-        <v>17.43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>39.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3">
-        <v>74.849999999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>59.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>60</v>
-      </c>
-      <c r="F16" s="3">
-        <v>14.94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0654905A-1567-4C76-B37B-05DFF7B7C586}">
   <dimension ref="A1:L21"/>
   <sheetViews>

--- a/ch_10/ch_10.xlsx
+++ b/ch_10/ch_10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\ch_10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-analytics-excel-book\ch_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBA0F13-C5BC-41D8-A530-3E3730EF559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B773605-150B-4503-B6AC-05D25A1A0879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="array-references" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>Array:</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Vance</t>
-  </si>
-  <si>
-    <t>Rubber bands</t>
   </si>
   <si>
     <t>branch_id</t>
@@ -221,8 +218,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEFF313B-2AE6-48A7-9FFB-D14CA4CAABE1}" name="dm_sales" displayName="dm_sales" ref="A1:F16" totalsRowShown="0">
-  <autoFilter ref="A1:F16" xr:uid="{AEFF313B-2AE6-48A7-9FFB-D14CA4CAABE1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEFF313B-2AE6-48A7-9FFB-D14CA4CAABE1}" name="dm_sales" displayName="dm_sales" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{AEFF313B-2AE6-48A7-9FFB-D14CA4CAABE1}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{66A576D4-9B7C-438B-B561-A8C31C0019A6}" name="trans_id"/>
     <tableColumn id="2" xr3:uid="{9F975DB4-6B95-4CF5-840A-999D39C31BCB}" name="emp_first"/>
@@ -565,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886B6D4A-372A-44D5-9850-365A4A804FBA}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -603,9 +600,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A3CD22-BB7B-4305-9639-39B459C0453E}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -769,7 +768,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -916,26 +915,6 @@
       </c>
       <c r="F15" s="3">
         <v>59.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>60</v>
-      </c>
-      <c r="F16" s="3">
-        <v>14.94</v>
       </c>
     </row>
   </sheetData>
@@ -973,10 +952,10 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -985,19 +964,19 @@
         <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -1028,7 +1007,7 @@
         <v>Scranton</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1062,7 +1041,7 @@
         <v>Scranton</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1096,7 +1075,7 @@
         <v>Stamford</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1192,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">

--- a/ch_10/ch_10.xlsx
+++ b/ch_10/ch_10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-analytics-excel-book\ch_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B773605-150B-4503-B6AC-05D25A1A0879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B603031A-DDBD-4713-8571-C286D6CE2582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10117" yWindow="1418" windowWidth="17213" windowHeight="13290" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="array-references" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>Array:</t>
   </si>
@@ -188,13 +188,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -233,20 +227,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F9F3E84B-F706-4DD6-8CCD-E4438BCD0D12}" name="transactions" displayName="transactions" ref="A1:H21" totalsRowShown="0">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F9F3E84B-F706-4DD6-8CCD-E4438BCD0D12}" name="transactions" displayName="transactions" ref="A1:F21" totalsRowShown="0">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EEF479B5-2E93-497D-8501-736E4296481E}" name="trans_id"/>
-    <tableColumn id="2" xr3:uid="{8D4739B4-CB7C-43BF-BB19-2204FEA8792E}" name="trans_date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{8D4739B4-CB7C-43BF-BB19-2204FEA8792E}" name="trans_date" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{FF52F6C4-75D3-401B-B687-5077D7CEED93}" name="branch_id"/>
     <tableColumn id="4" xr3:uid="{B9A8441C-8F6E-4200-861D-54E1DAFB6C03}" name="product_id"/>
     <tableColumn id="5" xr3:uid="{82220B8E-F7E4-4664-B59E-50A502801415}" name="quantity"/>
-    <tableColumn id="6" xr3:uid="{7B1B0320-C7A7-4FFA-9221-983D02057C07}" name="total_price" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{5B854B4B-7CA1-4968-9CF3-5062269E3CA9}" name="product_name" dataDxfId="2">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{DF358D5B-1E8F-4B77-9D68-BA0E29E88C1B}" name="branch_name" dataDxfId="1">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="6" xr3:uid="{7B1B0320-C7A7-4FFA-9221-983D02057C07}" name="total_price" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A3CD22-BB7B-4305-9639-39B459C0453E}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -929,7 +917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0654905A-1567-4C76-B37B-05DFF7B7C586}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -939,8 +929,7 @@
     <col min="4" max="4" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.59765625" customWidth="1"/>
     <col min="10" max="10" width="11.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.86328125" bestFit="1" customWidth="1"/>
@@ -966,12 +955,6 @@
       <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="J1" t="s">
         <v>26</v>
       </c>
@@ -998,14 +981,6 @@
       <c r="F2" s="4">
         <v>99.9</v>
       </c>
-      <c r="G2" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Copy Paper</v>
-      </c>
-      <c r="H2" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
       <c r="J2" t="s">
         <v>27</v>
       </c>
@@ -1032,14 +1007,6 @@
       <c r="F3" s="4">
         <v>12.45</v>
       </c>
-      <c r="G3" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Sticky Notes</v>
-      </c>
-      <c r="H3" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
       <c r="J3" t="s">
         <v>28</v>
       </c>
@@ -1065,14 +1032,6 @@
       </c>
       <c r="F4" s="4">
         <v>199.8</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Copy Paper</v>
-      </c>
-      <c r="H4" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Stamford</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -1100,14 +1059,6 @@
       <c r="F5" s="4">
         <v>39.979999999999997</v>
       </c>
-      <c r="G5" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Printer Ink</v>
-      </c>
-      <c r="H5" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Nashua</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
@@ -1128,14 +1079,6 @@
       <c r="F6" s="4">
         <v>149.85</v>
       </c>
-      <c r="G6" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Other</v>
-      </c>
-      <c r="H6" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -1156,14 +1099,6 @@
       <c r="F7" s="4">
         <v>14.97</v>
       </c>
-      <c r="G7" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Legal Pads</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Stamford</v>
-      </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
@@ -1193,14 +1128,6 @@
       <c r="F8" s="4">
         <v>24.9</v>
       </c>
-      <c r="G8" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Sticky Notes</v>
-      </c>
-      <c r="H8" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Stamford</v>
-      </c>
       <c r="J8">
         <v>1</v>
       </c>
@@ -1230,14 +1157,6 @@
       <c r="F9" s="4">
         <v>55.92</v>
       </c>
-      <c r="G9" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Envelopes</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
       <c r="J9">
         <v>2</v>
       </c>
@@ -1267,14 +1186,6 @@
       <c r="F10" s="4">
         <v>99.95</v>
       </c>
-      <c r="G10" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Printer Ink</v>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Nashua</v>
-      </c>
       <c r="J10">
         <v>3</v>
       </c>
@@ -1304,14 +1215,6 @@
       <c r="F11" s="4">
         <v>119.88</v>
       </c>
-      <c r="G11" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Copy Paper</v>
-      </c>
-      <c r="H11" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Nashua</v>
-      </c>
       <c r="J11">
         <v>4</v>
       </c>
@@ -1341,14 +1244,6 @@
       <c r="F12" s="4">
         <v>17.43</v>
       </c>
-      <c r="G12" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Sticky Notes</v>
-      </c>
-      <c r="H12" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
       <c r="J12">
         <v>5</v>
       </c>
@@ -1378,14 +1273,6 @@
       <c r="F13" s="4">
         <v>20.97</v>
       </c>
-      <c r="G13" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Envelopes</v>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Stamford</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
@@ -1406,14 +1293,6 @@
       <c r="F14" s="4">
         <v>49.9</v>
       </c>
-      <c r="G14" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Legal Pads</v>
-      </c>
-      <c r="H14" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
@@ -1434,14 +1313,6 @@
       <c r="F15" s="4">
         <v>79.959999999999994</v>
       </c>
-      <c r="G15" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Other</v>
-      </c>
-      <c r="H15" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Stamford</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
@@ -1462,16 +1333,8 @@
       <c r="F16" s="4">
         <v>14.94</v>
       </c>
-      <c r="G16" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Sticky Notes</v>
-      </c>
-      <c r="H16" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Nashua</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1490,16 +1353,8 @@
       <c r="F17" s="4">
         <v>34.950000000000003</v>
       </c>
-      <c r="G17" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Envelopes</v>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1518,16 +1373,8 @@
       <c r="F18" s="4">
         <v>79.92</v>
       </c>
-      <c r="G18" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Copy Paper</v>
-      </c>
-      <c r="H18" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Stamford</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1546,16 +1393,8 @@
       <c r="F19" s="4">
         <v>74.849999999999994</v>
       </c>
-      <c r="G19" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Legal Pads</v>
-      </c>
-      <c r="H19" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Nashua</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1574,16 +1413,8 @@
       <c r="F20" s="4">
         <v>59.97</v>
       </c>
-      <c r="G20" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Printer Ink</v>
-      </c>
-      <c r="H20" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1601,14 +1432,6 @@
       </c>
       <c r="F21" s="4">
         <v>69.900000000000006</v>
-      </c>
-      <c r="G21" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
-        <v>Envelopes</v>
-      </c>
-      <c r="H21" s="4" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
-        <v>Stamford</v>
       </c>
     </row>
   </sheetData>
